--- a/Dispatcher/Data/Input/SiteConfig.xlsx
+++ b/Dispatcher/Data/Input/SiteConfig.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\ONEOONE_GOLF\Dispatcher\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5ABF7AD-513B-4FC1-87E2-E32CB7411588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67C0EE-CF77-4FA1-94E0-FF80AE00CFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>\lakeside\Lakeside_Main.xaml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>golf541189</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,6 +306,10 @@
   </si>
   <si>
     <t>\Islandresort\Islandresort_Main.xaml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\Lakeside\Lakeside_Main.xaml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +705,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -746,10 +746,10 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2">
         <v>7</v>
@@ -766,10 +766,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>19</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -795,38 +795,38 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="5">
         <v>7</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -835,18 +835,18 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -855,18 +855,18 @@
         <v>7</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -875,18 +875,18 @@
         <v>7</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -895,18 +895,18 @@
         <v>7</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>11</v>
@@ -915,19 +915,19 @@
         <v>7</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>11</v>
@@ -936,18 +936,18 @@
         <v>7</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -956,127 +956,127 @@
         <v>7</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5">
         <v>7</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="C14" s="6">
         <v>44114266</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E14" s="5">
         <v>7</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" s="5">
         <v>7</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="5">
         <v>7</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="5">
         <v>7</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="C18" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5">
         <v>7</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/Dispatcher/Data/Input/SiteConfig.xlsx
+++ b/Dispatcher/Data/Input/SiteConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\ONEOONE_GOLF\Dispatcher\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67C0EE-CF77-4FA1-94E0-FF80AE00CFFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7F2B4F-2320-4521-A2F1-0FAF88A7A012}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3048" yWindow="624" windowWidth="17280" windowHeight="10872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SiteInfo" sheetId="1" r:id="rId1"/>
@@ -705,7 +705,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E2" sqref="E2:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -752,7 +752,7 @@
         <v>38</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -772,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -792,7 +792,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>69</v>
@@ -811,8 +811,8 @@
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5">
-        <v>7</v>
+      <c r="E5">
+        <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>40</v>
@@ -831,8 +831,8 @@
       <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
-        <v>7</v>
+      <c r="E6">
+        <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
@@ -851,8 +851,8 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
-        <v>7</v>
+      <c r="E7">
+        <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>43</v>
@@ -871,8 +871,8 @@
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5">
-        <v>7</v>
+      <c r="E8">
+        <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>44</v>
@@ -891,8 +891,8 @@
       <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
-        <v>7</v>
+      <c r="E9">
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>45</v>
@@ -911,8 +911,8 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="13">
-        <v>7</v>
+      <c r="E10">
+        <v>14</v>
       </c>
       <c r="F10" s="13" t="s">
         <v>46</v>
@@ -932,8 +932,8 @@
       <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
-        <v>7</v>
+      <c r="E11">
+        <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>47</v>
@@ -952,8 +952,8 @@
       <c r="D12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
-        <v>7</v>
+      <c r="E12">
+        <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>48</v>
@@ -972,8 +972,8 @@
       <c r="D13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5">
-        <v>7</v>
+      <c r="E13">
+        <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>49</v>
@@ -992,8 +992,8 @@
       <c r="D14" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E14" s="5">
-        <v>7</v>
+      <c r="E14">
+        <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>64</v>
@@ -1012,8 +1012,8 @@
       <c r="D15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E15" s="5">
-        <v>7</v>
+      <c r="E15">
+        <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>65</v>
@@ -1032,8 +1032,8 @@
       <c r="D16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E16" s="5">
-        <v>7</v>
+      <c r="E16">
+        <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>66</v>
@@ -1052,8 +1052,8 @@
       <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="5">
-        <v>7</v>
+      <c r="E17">
+        <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>67</v>
@@ -1072,8 +1072,8 @@
       <c r="D18" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="5">
-        <v>7</v>
+      <c r="E18">
+        <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>68</v>
